--- a/Segments Revenue.xlsx
+++ b/Segments Revenue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc6b1362731fbdae/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7160A4-AC6D-4F52-BE79-04BEABD0DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{BE7160A4-AC6D-4F52-BE79-04BEABD0DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6588E64-3259-4E0C-98D4-085BF53033A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8EB535F-C718-4A2A-9A51-BC7164756D02}"/>
   </bookViews>
@@ -61,11 +61,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0_)_%;\(#,##0.0\)_%;#,##0.0_)_%;@_)_%"/>
-    <numFmt numFmtId="195" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;-&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0_)_%;\(#,##0.0\)_%;#,##0.0_)_%;@_)_%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;-&quot;"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,37 +206,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM 2" xfId="29" xr:uid="{8B70182E-451A-48FC-8E23-48A9A4D27006}"/>
@@ -589,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060789DC-432A-4F2A-8222-0E30A50FDA79}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -623,138 +620,122 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>91431</v>
+      </c>
+      <c r="C2" s="4">
+        <v>108354</v>
+      </c>
+      <c r="D2" s="4">
+        <v>122987</v>
+      </c>
+      <c r="E2" s="4">
+        <v>141247</v>
+      </c>
+      <c r="F2" s="4">
+        <v>197346</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5798</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17224</v>
+      </c>
+      <c r="E3" s="4">
+        <v>17192</v>
+      </c>
+      <c r="F3" s="4">
+        <v>16227</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>91431</v>
-      </c>
-      <c r="C4" s="5">
-        <v>108354</v>
-      </c>
-      <c r="D4" s="5">
-        <v>122987</v>
-      </c>
-      <c r="E4" s="5">
-        <v>141247</v>
-      </c>
-      <c r="F4" s="5">
-        <v>197346</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>22993</v>
+      </c>
+      <c r="C4" s="4">
+        <v>31881</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42745</v>
+      </c>
+      <c r="E4" s="4">
+        <v>53762</v>
+      </c>
+      <c r="F4" s="4">
+        <v>80461</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5798</v>
-      </c>
-      <c r="D5" s="5">
-        <v>17224</v>
-      </c>
-      <c r="E5" s="5">
-        <v>17192</v>
-      </c>
-      <c r="F5" s="5">
-        <v>16227</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6394</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9721</v>
+      </c>
+      <c r="D5" s="4">
+        <v>14168</v>
+      </c>
+      <c r="E5" s="4">
+        <v>19210</v>
+      </c>
+      <c r="F5" s="4">
+        <v>25207</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>22993</v>
-      </c>
-      <c r="C6" s="5">
-        <v>31881</v>
-      </c>
-      <c r="D6" s="5">
-        <v>42745</v>
-      </c>
-      <c r="E6" s="5">
-        <v>53762</v>
-      </c>
-      <c r="F6" s="5">
-        <v>80461</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12219</v>
+      </c>
+      <c r="C6" s="4">
+        <v>17459</v>
+      </c>
+      <c r="D6" s="4">
+        <v>25655</v>
+      </c>
+      <c r="E6" s="4">
+        <v>35026</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45370</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6394</v>
-      </c>
-      <c r="C7" s="5">
-        <v>9721</v>
-      </c>
-      <c r="D7" s="5">
-        <v>14168</v>
-      </c>
-      <c r="E7" s="5">
-        <v>19210</v>
-      </c>
-      <c r="F7" s="5">
-        <v>25207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>12219</v>
-      </c>
-      <c r="C8" s="5">
-        <v>17459</v>
-      </c>
-      <c r="D8" s="5">
-        <v>25655</v>
-      </c>
-      <c r="E8" s="5">
-        <v>35026</v>
-      </c>
-      <c r="F8" s="5">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B7" s="4">
         <v>2950</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C7" s="4">
         <v>4653</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D7" s="4">
         <v>10108</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E7" s="4">
         <v>14085</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F7" s="4">
         <v>21453</v>
       </c>
     </row>
